--- a/biology/Histoire de la zoologie et de la botanique/Knut_Fægri/Knut_Fægri.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Knut_Fægri/Knut_Fægri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Knut_F%C3%A6gri</t>
+          <t>Knut_Fægri</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Knut Fægri est un botaniste norvégien, né le 17 juillet 1909 à Bergen et mort le 10 décembre 2001.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Knut_F%C3%A6gri</t>
+          <t>Knut_Fægri</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études à la Katedralskole de Bergen de 1920 à 1926 puis à l’université d’Oslo. Il obtient son doctorat en 1934.
 Il enseigne la systématique botanique et la phytogéographie. Il dirige également le muséum botanique et le jardin botanique de l’université de Bergen jusqu’en 1946. Il est doyen de son université de 1959 à 1965.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Knut_F%C3%A6gri</t>
+          <t>Knut_Fægri</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Avec Johannes Iversen (1904-1971) : Textbook of pollen analysis 1950
 Avec Leendert van der Pijl (1903-1990) : The principles of Pollination Ecology Pergamon Press, Oxford, 1966</t>
